--- a/data/baseball_ground_other/data.xlsx
+++ b/data/baseball_ground_other/data.xlsx
@@ -457,7 +457,7 @@
         <v>高松市庵治町2290-1</v>
       </c>
       <c r="F2" t="str">
-        <v>087-871-7060</v>
+        <v>087-845-7060</v>
       </c>
       <c r="G2" t="str">
         <v>http://www.taka-spo.or.jp/aju1.html</v>
